--- a/hiqu/HR/Performance Evaluation/December 2024/Dev/Arif Khan.xlsx
+++ b/hiqu/HR/Performance Evaluation/December 2024/Dev/Arif Khan.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\November 2024\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\December 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1148F06-0E42-4590-A2B9-20BFDD5BFB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E621D0A4-D15C-4750-9E38-E45D33E96BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
     <sheet name="Quarterly Evaluation" sheetId="3" r:id="rId2"/>
     <sheet name="Consolidated" sheetId="5" r:id="rId3"/>
-    <sheet name="November 2024" sheetId="6" r:id="rId4"/>
-    <sheet name="October 24" sheetId="4" r:id="rId5"/>
-    <sheet name="September 24" sheetId="1" r:id="rId6"/>
+    <sheet name="December 2024" sheetId="7" r:id="rId4"/>
+    <sheet name="November 2024" sheetId="6" r:id="rId5"/>
+    <sheet name="October 24" sheetId="4" r:id="rId6"/>
+    <sheet name="September 24" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="143">
   <si>
     <t>Employee Name</t>
   </si>
@@ -452,6 +453,24 @@
   </si>
   <si>
     <t>Tasks by US Team - JustGlobal</t>
+  </si>
+  <si>
+    <t>Period: December 2024</t>
+  </si>
+  <si>
+    <t>Approval routing</t>
+  </si>
+  <si>
+    <t>EDI file updating and upload</t>
+  </si>
+  <si>
+    <t>AdTech Fee commission</t>
+  </si>
+  <si>
+    <t>Restrict Self Approval - Time and expense</t>
+  </si>
+  <si>
+    <t>Maintenance Activity</t>
   </si>
 </sst>
 </file>
@@ -1291,6 +1310,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1313,12 +1338,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3352,7 +3371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
@@ -3445,7 +3464,7 @@
       </c>
       <c r="C10" s="138">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.6767123287671233</v>
+        <v>1.832876712328767</v>
       </c>
       <c r="D10" s="138"/>
       <c r="E10" s="138"/>
@@ -4448,13 +4467,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED0E320-9CAE-499B-97CB-201CC1F9356F}">
-  <dimension ref="B2:Y47"/>
+  <dimension ref="B2:Y52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4714,7 +4733,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="81">
-        <f t="shared" ref="R9:R45" si="0">IF(P9=0,0,P9-Q9)</f>
+        <f t="shared" ref="R9:R50" si="0">IF(P9=0,0,P9-Q9)</f>
         <v>0</v>
       </c>
       <c r="S9" s="85"/>
@@ -4754,7 +4773,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="82">
-        <f t="shared" ref="N10:N45" si="1">L10-M10</f>
+        <f t="shared" ref="N10:N50" si="1">L10-M10</f>
         <v>-2</v>
       </c>
       <c r="P10" s="2"/>
@@ -4765,7 +4784,7 @@
       </c>
       <c r="S10" s="85"/>
       <c r="T10" s="87">
-        <f t="shared" ref="T10:T45" si="2">D10+E10+F10+G10+H10+I10+J10+M10+Q10</f>
+        <f t="shared" ref="T10:T50" si="2">D10+E10+F10+G10+H10+I10+J10+M10+Q10</f>
         <v>2</v>
       </c>
       <c r="V10" s="2"/>
@@ -4903,15 +4922,15 @@
       <c r="K14" s="59"/>
       <c r="L14" s="5"/>
       <c r="M14" s="33">
-        <v>19</v>
+        <v>32.5</v>
       </c>
       <c r="N14" s="82">
         <f t="shared" si="1"/>
-        <v>-19</v>
+        <v>-32.5</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R14" s="81">
         <f t="shared" si="0"/>
@@ -4920,7 +4939,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="87">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>48.5</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -4941,14 +4960,16 @@
       <c r="J15" s="54"/>
       <c r="K15" s="59"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="80"/>
+      <c r="M15" s="80">
+        <v>4</v>
+      </c>
       <c r="N15" s="82">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15" s="81">
         <f t="shared" si="0"/>
@@ -4957,7 +4978,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="87">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -5076,10 +5097,10 @@
       <c r="Y18" s="8"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -5090,20 +5111,16 @@
       <c r="K19" s="59"/>
       <c r="L19" s="5"/>
       <c r="M19" s="33"/>
-      <c r="N19" s="82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N19" s="82"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="81">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="85"/>
+      <c r="Q19" s="2">
+        <v>7</v>
+      </c>
+      <c r="R19" s="81"/>
+      <c r="S19" s="7"/>
       <c r="T19" s="87">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -5113,7 +5130,7 @@
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="31"/>
       <c r="C20" s="1" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
@@ -5124,21 +5141,17 @@
       <c r="J20" s="54"/>
       <c r="K20" s="59"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="M20" s="33"/>
+      <c r="N20" s="82"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="81">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="85"/>
+      <c r="Q20" s="2">
+        <v>5</v>
+      </c>
+      <c r="R20" s="81"/>
+      <c r="S20" s="7"/>
       <c r="T20" s="87">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -5146,10 +5159,10 @@
       <c r="Y20" s="8"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B21" s="32"/>
-      <c r="C21" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="B21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="31"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
@@ -5159,15 +5172,13 @@
       <c r="J21" s="54"/>
       <c r="K21" s="59"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="2"/>
+      <c r="M21" s="33"/>
       <c r="N21" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2">
-        <v>26.5</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5175,7 +5186,7 @@
       <c r="S21" s="85"/>
       <c r="T21" s="87">
         <f t="shared" si="2"/>
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -5185,12 +5196,10 @@
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="31"/>
       <c r="C22" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D22" s="27"/>
-      <c r="E22" s="27">
-        <v>4</v>
-      </c>
+      <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -5209,10 +5218,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S22" s="7"/>
+      <c r="S22" s="85"/>
       <c r="T22" s="87">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -5220,10 +5229,10 @@
       <c r="Y22" s="8"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="72"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
@@ -5232,22 +5241,24 @@
       <c r="I23" s="5"/>
       <c r="J23" s="54"/>
       <c r="K23" s="59"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="44"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="2"/>
       <c r="N23" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P23" s="2"/>
-      <c r="Q23" s="73"/>
+      <c r="Q23" s="2">
+        <v>26.5</v>
+      </c>
       <c r="R23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S23" s="7"/>
+      <c r="S23" s="85"/>
       <c r="T23" s="87">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -5255,12 +5266,14 @@
       <c r="Y23" s="8"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="1" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="E24" s="27">
+        <v>4</v>
+      </c>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
@@ -5268,12 +5281,10 @@
       <c r="J24" s="54"/>
       <c r="K24" s="59"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="2">
-        <v>4.5</v>
-      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="82">
         <f t="shared" si="1"/>
-        <v>-4.5</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -5284,7 +5295,7 @@
       <c r="S24" s="7"/>
       <c r="T24" s="87">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -5292,10 +5303,10 @@
       <c r="Y24" s="8"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="72"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
@@ -5304,16 +5315,14 @@
       <c r="I25" s="5"/>
       <c r="J25" s="54"/>
       <c r="K25" s="59"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="2">
-        <v>3.5</v>
-      </c>
+      <c r="L25" s="57"/>
+      <c r="M25" s="44"/>
       <c r="N25" s="82">
         <f t="shared" si="1"/>
-        <v>-3.5</v>
+        <v>0</v>
       </c>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="Q25" s="73"/>
       <c r="R25" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5321,7 +5330,7 @@
       <c r="S25" s="7"/>
       <c r="T25" s="87">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -5331,7 +5340,7 @@
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -5343,11 +5352,11 @@
       <c r="K26" s="59"/>
       <c r="L26" s="5"/>
       <c r="M26" s="2">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N26" s="82">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-4.5</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -5358,7 +5367,7 @@
       <c r="S26" s="7"/>
       <c r="T26" s="87">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -5366,9 +5375,9 @@
       <c r="Y26" s="8"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
@@ -5379,15 +5388,15 @@
       <c r="J27" s="54"/>
       <c r="K27" s="59"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="2"/>
+      <c r="M27" s="2">
+        <v>10.5</v>
+      </c>
       <c r="N27" s="82">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-10.5</v>
       </c>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2">
-        <v>7.5</v>
-      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5395,7 +5404,7 @@
       <c r="S27" s="7"/>
       <c r="T27" s="87">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
@@ -5403,10 +5412,10 @@
       <c r="Y27" s="8"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="1"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
@@ -5416,8 +5425,13 @@
       <c r="J28" s="54"/>
       <c r="K28" s="59"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="82"/>
+      <c r="M28" s="2">
+        <v>3</v>
+      </c>
+      <c r="N28" s="82">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="81">
@@ -5427,7 +5441,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="87">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
@@ -5437,23 +5451,28 @@
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="32"/>
       <c r="C29" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="5">
-        <v>2</v>
-      </c>
+      <c r="I29" s="5"/>
       <c r="J29" s="54"/>
       <c r="K29" s="59"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="82"/>
+      <c r="M29" s="2">
+        <v>9</v>
+      </c>
+      <c r="N29" s="82">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
       <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="Q29" s="2">
+        <v>11</v>
+      </c>
       <c r="R29" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5461,7 +5480,7 @@
       <c r="S29" s="7"/>
       <c r="T29" s="87">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
@@ -5469,10 +5488,10 @@
       <c r="Y29" s="8"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="1"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
@@ -5482,18 +5501,20 @@
       <c r="J30" s="54"/>
       <c r="K30" s="59"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="82"/>
+      <c r="M30" s="2">
+        <v>20</v>
+      </c>
+      <c r="N30" s="82">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="81">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="R30" s="81"/>
       <c r="S30" s="7"/>
       <c r="T30" s="87">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
@@ -5503,31 +5524,31 @@
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="32"/>
       <c r="C31" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="28">
-        <v>4.5</v>
-      </c>
+      <c r="H31" s="28"/>
       <c r="I31" s="5"/>
       <c r="J31" s="54"/>
       <c r="K31" s="59"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="82"/>
+      <c r="M31" s="2">
+        <v>2</v>
+      </c>
+      <c r="N31" s="82">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="81">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="R31" s="81"/>
       <c r="S31" s="7"/>
       <c r="T31" s="87">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -5536,7 +5557,7 @@
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="27"/>
@@ -5569,18 +5590,15 @@
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="32"/>
       <c r="C33" s="1" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="D33" s="27"/>
-      <c r="E33" s="27">
-        <f>23+5</f>
-        <v>28</v>
-      </c>
+      <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="5">
-        <v>94.5</v>
+        <v>2</v>
       </c>
       <c r="J33" s="54"/>
       <c r="K33" s="59"/>
@@ -5596,7 +5614,7 @@
       <c r="S33" s="7"/>
       <c r="T33" s="87">
         <f t="shared" si="2"/>
-        <v>122.5</v>
+        <v>2</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
@@ -5604,17 +5622,15 @@
       <c r="Y33" s="8"/>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
-      <c r="C34" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="B34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="28"/>
-      <c r="H34" s="28">
-        <v>68</v>
-      </c>
+      <c r="H34" s="28"/>
       <c r="I34" s="5"/>
       <c r="J34" s="54"/>
       <c r="K34" s="59"/>
@@ -5622,9 +5638,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="82"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="2">
-        <v>51</v>
-      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5632,7 +5646,7 @@
       <c r="S34" s="7"/>
       <c r="T34" s="87">
         <f t="shared" si="2"/>
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
@@ -5642,20 +5656,20 @@
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="32"/>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="H35" s="28">
+        <v>4.5</v>
+      </c>
       <c r="I35" s="5"/>
       <c r="J35" s="54"/>
       <c r="K35" s="59"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="2">
-        <v>14</v>
-      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="82"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -5666,7 +5680,7 @@
       <c r="S35" s="7"/>
       <c r="T35" s="87">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>4.5</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
@@ -5676,50 +5690,42 @@
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="32"/>
       <c r="C36" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
+      <c r="H36" s="28">
+        <v>1.5</v>
+      </c>
       <c r="I36" s="5"/>
       <c r="J36" s="54"/>
       <c r="K36" s="59"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="2">
-        <v>5</v>
-      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="82"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="81">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="R36" s="81"/>
       <c r="S36" s="7"/>
-      <c r="T36" s="87">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
+      <c r="T36" s="87"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="8"/>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B37" s="32"/>
-      <c r="C37" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="B37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="5">
-        <v>3</v>
-      </c>
+      <c r="I37" s="5"/>
       <c r="J37" s="54"/>
       <c r="K37" s="59"/>
       <c r="L37" s="5"/>
@@ -5734,7 +5740,7 @@
       <c r="S37" s="7"/>
       <c r="T37" s="87">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
@@ -5742,23 +5748,30 @@
       <c r="Y37" s="8"/>
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B38" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="1"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="E38" s="27">
+        <f>23+5</f>
+        <v>28</v>
+      </c>
       <c r="F38" s="27"/>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="5"/>
+      <c r="I38" s="5">
+        <v>113</v>
+      </c>
       <c r="J38" s="54"/>
       <c r="K38" s="59"/>
       <c r="L38" s="5"/>
       <c r="M38" s="2"/>
       <c r="N38" s="82"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
+      <c r="Q38" s="2">
+        <v>55</v>
+      </c>
       <c r="R38" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5766,7 +5779,7 @@
       <c r="S38" s="7"/>
       <c r="T38" s="87">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
@@ -5776,14 +5789,14 @@
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="32"/>
       <c r="C39" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="54"/>
@@ -5792,7 +5805,9 @@
       <c r="M39" s="2"/>
       <c r="N39" s="82"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
+      <c r="Q39" s="2">
+        <v>51</v>
+      </c>
       <c r="R39" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5800,7 +5815,7 @@
       <c r="S39" s="7"/>
       <c r="T39" s="87">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
@@ -5809,21 +5824,24 @@
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" s="32"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="5"/>
+      <c r="I40" s="5">
+        <v>20.5</v>
+      </c>
       <c r="J40" s="54"/>
       <c r="K40" s="59"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="M40" s="2">
+        <v>14</v>
+      </c>
+      <c r="N40" s="82"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="81">
@@ -5833,7 +5851,7 @@
       <c r="S40" s="7"/>
       <c r="T40" s="87">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
@@ -5842,10 +5860,14 @@
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" s="32"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
+      <c r="F41" s="27">
+        <v>5</v>
+      </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="5"/>
@@ -5853,10 +5875,7 @@
       <c r="K41" s="59"/>
       <c r="L41" s="5"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N41" s="82"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="81">
@@ -5866,7 +5885,7 @@
       <c r="S41" s="7"/>
       <c r="T41" s="87">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
@@ -5875,21 +5894,22 @@
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" s="32"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="5"/>
+      <c r="I42" s="5">
+        <v>3</v>
+      </c>
       <c r="J42" s="54"/>
       <c r="K42" s="59"/>
       <c r="L42" s="5"/>
       <c r="M42" s="2"/>
-      <c r="N42" s="82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N42" s="82"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="81">
@@ -5899,7 +5919,7 @@
       <c r="S42" s="7"/>
       <c r="T42" s="87">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
@@ -5907,70 +5927,66 @@
       <c r="Y42" s="8"/>
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
+      <c r="B43" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="55"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="54"/>
       <c r="K43" s="59"/>
       <c r="L43" s="5"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="2"/>
+      <c r="N43" s="82"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S43" s="55"/>
+      <c r="S43" s="7"/>
       <c r="T43" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="8"/>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="55"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28">
+        <v>2</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="54"/>
       <c r="K44" s="59"/>
       <c r="L44" s="5"/>
       <c r="M44" s="2"/>
-      <c r="N44" s="82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="2"/>
+      <c r="N44" s="82"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S44" s="55"/>
+      <c r="S44" s="7"/>
       <c r="T44" s="87">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="2"/>
+        <v>2</v>
+      </c>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -5978,7 +5994,7 @@
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" s="32"/>
-      <c r="C45" s="31"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
@@ -5988,13 +6004,13 @@
       <c r="J45" s="54"/>
       <c r="K45" s="59"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="52"/>
+      <c r="M45" s="2"/>
       <c r="N45" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P45" s="2"/>
-      <c r="Q45" s="52"/>
+      <c r="Q45" s="2"/>
       <c r="R45" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6009,86 +6025,255 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="8"/>
     </row>
-    <row r="46" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="15" t="s">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B46" s="32"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="7"/>
+      <c r="T46" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="8"/>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B47" s="32"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="7"/>
+      <c r="T47" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="8"/>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="55"/>
+      <c r="T48" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="8"/>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="55"/>
+      <c r="T49" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="8"/>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B50" s="32"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="7"/>
+      <c r="T50" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="8"/>
+    </row>
+    <row r="51" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16">
-        <f>SUM(D8:D45)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="16">
-        <f>SUM(E8:E45)</f>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16">
+        <f>SUM(D8:D50)</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="16">
+        <f>SUM(E8:E50)</f>
         <v>32</v>
       </c>
-      <c r="F46" s="16">
-        <f>SUM(F8:F45)</f>
-        <v>15</v>
-      </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16">
-        <f>SUM(H8:H45)</f>
-        <v>74.5</v>
-      </c>
-      <c r="I46" s="16">
-        <f>SUM(I8:I45)</f>
-        <v>103.5</v>
-      </c>
-      <c r="J46" s="16">
-        <f>SUM(J8:J45)</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="70"/>
-      <c r="L46" s="16">
-        <f>SUM(L8:L45)</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="49">
-        <f>SUM(M8:M45)</f>
-        <v>98.5</v>
-      </c>
-      <c r="N46" s="83">
-        <f>L46-M46</f>
-        <v>-98.5</v>
-      </c>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16">
-        <f>SUM(P8:P45)</f>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="49">
-        <f>SUM(Q8:Q45)</f>
-        <v>101.5</v>
-      </c>
-      <c r="R46" s="136">
-        <f>P46-Q46</f>
-        <v>-101.5</v>
-      </c>
-      <c r="S46" s="16"/>
-      <c r="T46" s="49">
-        <f>SUM(T8:T45)</f>
-        <v>425</v>
-      </c>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16">
-        <f>SUM(V8:V45)</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="16">
-        <f>SUM(W8:W45)</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="16">
-        <f>SUM(X8:X45)</f>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="16">
-        <f>SUM(Y8:Y45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="F51" s="16">
+        <f>SUM(F8:F50)</f>
+        <v>20</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16">
+        <f>SUM(H8:H50)</f>
+        <v>76</v>
+      </c>
+      <c r="I51" s="16">
+        <f>SUM(I8:I50)</f>
+        <v>142.5</v>
+      </c>
+      <c r="J51" s="16">
+        <f>SUM(J8:J50)</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="70"/>
+      <c r="L51" s="16">
+        <f>SUM(L8:L50)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="49">
+        <f>SUM(M8:M50)</f>
+        <v>149</v>
+      </c>
+      <c r="N51" s="83">
+        <f>L51-M51</f>
+        <v>-149</v>
+      </c>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16">
+        <f>SUM(P8:P50)</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="49">
+        <f>SUM(Q8:Q50)</f>
+        <v>183</v>
+      </c>
+      <c r="R51" s="136">
+        <f>P51-Q51</f>
+        <v>-183</v>
+      </c>
+      <c r="S51" s="16"/>
+      <c r="T51" s="49">
+        <f>SUM(T8:T50)</f>
+        <v>601</v>
+      </c>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16">
+        <f>SUM(V8:V50)</f>
+        <v>0</v>
+      </c>
+      <c r="W51" s="16">
+        <f>SUM(W8:W50)</f>
+        <v>0</v>
+      </c>
+      <c r="X51" s="16">
+        <f>SUM(X8:X50)</f>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="16">
+        <f>SUM(Y8:Y50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B2:Y2"/>
@@ -6101,14 +6286,14 @@
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="I6:I7"/>
   </mergeCells>
-  <conditionalFormatting sqref="V9:V42">
+  <conditionalFormatting sqref="V9:V47">
     <cfRule type="expression" priority="2">
       <formula>V9/$Y9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V45">
+  <conditionalFormatting sqref="V50">
     <cfRule type="expression" priority="9">
-      <formula>V45/$Y45</formula>
+      <formula>V50/$Y50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6116,11 +6301,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5284F990-4449-4D0C-9474-727CB6FFEBB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755443B2-7DEB-4C42-9A9C-AC6973177075}">
   <dimension ref="B2:W29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6173,35 +6358,35 @@
       <c r="W2" s="147"/>
     </row>
     <row r="3" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="167" t="str">
+      <c r="B3" s="159" t="str">
         <f>Employee!C6</f>
         <v>Arif Khan</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="160"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="150" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C4" s="150"/>
       <c r="D4" s="150"/>
@@ -6232,12 +6417,12 @@
       <c r="C6" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="159" t="s">
+      <c r="D6" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="163"/>
       <c r="H6" s="91"/>
       <c r="I6" s="91" t="s">
         <v>117</v>
@@ -6245,24 +6430,24 @@
       <c r="J6" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="K6" s="162" t="s">
+      <c r="K6" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="164" t="s">
+      <c r="L6" s="166" t="s">
         <v>80</v>
       </c>
       <c r="M6" s="92"/>
-      <c r="N6" s="161" t="s">
+      <c r="N6" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
       <c r="Q6" s="94"/>
-      <c r="R6" s="166" t="s">
+      <c r="R6" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="166"/>
-      <c r="T6" s="166"/>
+      <c r="S6" s="168"/>
+      <c r="T6" s="168"/>
       <c r="U6" s="94"/>
       <c r="V6" s="95" t="s">
         <v>11</v>
@@ -6293,8 +6478,8 @@
       <c r="J7" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="163"/>
-      <c r="L7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="167"/>
       <c r="M7" s="92"/>
       <c r="N7" s="90" t="s">
         <v>10</v>
@@ -6353,7 +6538,7 @@
     <row r="9" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D9" s="109"/>
       <c r="E9" s="109"/>
@@ -6367,15 +6552,17 @@
       <c r="M9" s="92"/>
       <c r="N9" s="103"/>
       <c r="O9" s="105">
-        <v>4.5</v>
+        <v>13.5</v>
       </c>
       <c r="P9" s="112">
         <f>N9-O9</f>
-        <v>-4.5</v>
+        <v>-13.5</v>
       </c>
       <c r="Q9" s="94"/>
       <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
+      <c r="S9" s="105">
+        <v>12</v>
+      </c>
       <c r="T9" s="71">
         <f t="shared" ref="T9" si="0">IF(R9=0,0,(S9-R9)/R9)</f>
         <v>0</v>
@@ -6383,15 +6570,15 @@
       <c r="U9" s="113"/>
       <c r="V9" s="108">
         <f t="shared" ref="V9:V27" si="1">D9+E9+F9+G9+H9+I9+J9+K9+L9+O9+S9</f>
-        <v>4.5</v>
+        <v>25.5</v>
       </c>
       <c r="W9" s="94"/>
     </row>
     <row r="10" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="109"/>
       <c r="E10" s="109"/>
       <c r="F10" s="109"/>
@@ -6407,21 +6594,19 @@
       <c r="P10" s="112"/>
       <c r="Q10" s="94"/>
       <c r="R10" s="105"/>
-      <c r="S10" s="105">
-        <v>5.5</v>
-      </c>
+      <c r="S10" s="105"/>
       <c r="T10" s="71"/>
       <c r="U10" s="113"/>
       <c r="V10" s="108">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="W10" s="94"/>
     </row>
     <row r="11" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="D11" s="105"/>
       <c r="E11" s="105"/>
@@ -6434,25 +6619,25 @@
       <c r="L11" s="114"/>
       <c r="M11" s="92"/>
       <c r="N11" s="103"/>
-      <c r="O11" s="105">
-        <v>19</v>
-      </c>
+      <c r="O11" s="105"/>
       <c r="P11" s="106"/>
       <c r="Q11" s="105"/>
       <c r="R11" s="105"/>
-      <c r="S11" s="105"/>
+      <c r="S11" s="105">
+        <v>7</v>
+      </c>
       <c r="T11" s="71"/>
       <c r="U11" s="103"/>
       <c r="V11" s="108">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="W11" s="105"/>
     </row>
     <row r="12" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="D12" s="105"/>
       <c r="E12" s="105"/>
@@ -6465,24 +6650,24 @@
       <c r="L12" s="114"/>
       <c r="M12" s="92"/>
       <c r="N12" s="103"/>
-      <c r="O12" s="105"/>
+      <c r="O12" s="105">
+        <v>5</v>
+      </c>
       <c r="P12" s="106"/>
       <c r="Q12" s="105"/>
       <c r="R12" s="105"/>
-      <c r="S12" s="105">
-        <v>3</v>
-      </c>
+      <c r="S12" s="105"/>
       <c r="T12" s="71"/>
       <c r="U12" s="103"/>
       <c r="V12" s="108">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W12" s="105"/>
     </row>
     <row r="13" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="105"/>
@@ -6518,7 +6703,7 @@
     <row r="14" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D14" s="115"/>
       <c r="E14" s="115"/>
@@ -6532,7 +6717,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="117"/>
       <c r="O14" s="115">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="P14" s="118"/>
       <c r="Q14" s="115"/>
@@ -6542,15 +6727,15 @@
       <c r="U14" s="117"/>
       <c r="V14" s="108">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="W14" s="115"/>
     </row>
     <row r="15" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D15" s="115"/>
       <c r="E15" s="115"/>
       <c r="F15" s="115"/>
@@ -6562,23 +6747,27 @@
       <c r="L15" s="119"/>
       <c r="M15" s="92"/>
       <c r="N15" s="117"/>
-      <c r="O15" s="115"/>
+      <c r="O15" s="115">
+        <v>9</v>
+      </c>
       <c r="P15" s="118"/>
       <c r="Q15" s="94"/>
       <c r="R15" s="105"/>
-      <c r="S15" s="105"/>
+      <c r="S15" s="105">
+        <v>3.5</v>
+      </c>
       <c r="T15" s="71"/>
       <c r="U15" s="94"/>
       <c r="V15" s="108">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="W15" s="94"/>
     </row>
     <row r="16" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="D16" s="115"/>
       <c r="E16" s="115"/>
@@ -6591,26 +6780,26 @@
       <c r="L16" s="119"/>
       <c r="M16" s="92"/>
       <c r="N16" s="117"/>
-      <c r="O16" s="115"/>
+      <c r="O16" s="115">
+        <v>20</v>
+      </c>
       <c r="P16" s="118"/>
       <c r="Q16" s="94"/>
       <c r="R16" s="105"/>
-      <c r="S16" s="105">
-        <v>4.5</v>
-      </c>
+      <c r="S16" s="105"/>
       <c r="T16" s="71"/>
       <c r="U16" s="94"/>
       <c r="V16" s="108">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>20</v>
       </c>
       <c r="W16" s="94"/>
     </row>
     <row r="17" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="D17" s="115"/>
       <c r="E17" s="115"/>
       <c r="F17" s="115"/>
@@ -6622,7 +6811,9 @@
       <c r="L17" s="119"/>
       <c r="M17" s="92"/>
       <c r="N17" s="117"/>
-      <c r="O17" s="115"/>
+      <c r="O17" s="115">
+        <v>2</v>
+      </c>
       <c r="P17" s="118"/>
       <c r="Q17" s="94"/>
       <c r="R17" s="105"/>
@@ -6631,15 +6822,15 @@
       <c r="U17" s="94"/>
       <c r="V17" s="108">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W17" s="94"/>
     </row>
     <row r="18" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="B18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="115"/>
       <c r="E18" s="115"/>
       <c r="F18" s="115"/>
@@ -6651,9 +6842,7 @@
       <c r="L18" s="119"/>
       <c r="M18" s="92"/>
       <c r="N18" s="117"/>
-      <c r="O18" s="115">
-        <v>4.5</v>
-      </c>
+      <c r="O18" s="115"/>
       <c r="P18" s="118"/>
       <c r="Q18" s="94"/>
       <c r="R18" s="105"/>
@@ -6662,19 +6851,21 @@
       <c r="U18" s="94"/>
       <c r="V18" s="108">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="W18" s="94"/>
     </row>
     <row r="19" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="102"/>
       <c r="C19" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D19" s="115"/>
       <c r="E19" s="115"/>
       <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
+      <c r="G19" s="115">
+        <v>1.5</v>
+      </c>
       <c r="H19" s="117"/>
       <c r="I19" s="117"/>
       <c r="J19" s="117"/>
@@ -6682,9 +6873,7 @@
       <c r="L19" s="119"/>
       <c r="M19" s="92"/>
       <c r="N19" s="117"/>
-      <c r="O19" s="115">
-        <v>3.5</v>
-      </c>
+      <c r="O19" s="115"/>
       <c r="P19" s="118"/>
       <c r="Q19" s="94"/>
       <c r="R19" s="105"/>
@@ -6693,15 +6882,15 @@
       <c r="U19" s="94"/>
       <c r="V19" s="108">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="W19" s="94"/>
     </row>
     <row r="20" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="102"/>
-      <c r="C20" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="115"/>
       <c r="E20" s="115"/>
       <c r="F20" s="115"/>
@@ -6720,30 +6909,32 @@
       </c>
       <c r="Q20" s="94"/>
       <c r="R20" s="105"/>
-      <c r="S20" s="105">
-        <v>7.5</v>
-      </c>
+      <c r="S20" s="105"/>
       <c r="T20" s="71"/>
       <c r="U20" s="94"/>
       <c r="V20" s="108">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="W20" s="94"/>
     </row>
     <row r="21" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="D21" s="115"/>
       <c r="E21" s="115"/>
       <c r="F21" s="115"/>
       <c r="G21" s="115"/>
       <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
+      <c r="I21" s="117">
+        <v>55</v>
+      </c>
       <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
+      <c r="K21" s="117">
+        <v>18.5</v>
+      </c>
       <c r="L21" s="119"/>
       <c r="M21" s="92"/>
       <c r="N21" s="117"/>
@@ -6759,21 +6950,17 @@
       <c r="U21" s="94"/>
       <c r="V21" s="108">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>73.5</v>
       </c>
       <c r="W21" s="94"/>
     </row>
     <row r="22" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="115"/>
       <c r="E22" s="115"/>
       <c r="F22" s="115"/>
-      <c r="G22" s="115">
-        <v>4.5</v>
-      </c>
+      <c r="G22" s="115"/>
       <c r="H22" s="117"/>
       <c r="I22" s="117"/>
       <c r="J22" s="117"/>
@@ -6790,14 +6977,12 @@
       <c r="U22" s="94"/>
       <c r="V22" s="108">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="W22" s="94"/>
     </row>
     <row r="23" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="115"/>
       <c r="E23" s="115"/>
@@ -6825,21 +7010,15 @@
     </row>
     <row r="24" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="102"/>
-      <c r="C24" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="115"/>
-      <c r="E24" s="115">
-        <v>1.5</v>
-      </c>
+      <c r="E24" s="115"/>
       <c r="F24" s="115"/>
       <c r="G24" s="115"/>
       <c r="H24" s="117"/>
       <c r="I24" s="117"/>
       <c r="J24" s="117"/>
-      <c r="K24" s="117">
-        <v>64</v>
-      </c>
+      <c r="K24" s="117"/>
       <c r="L24" s="119"/>
       <c r="M24" s="92"/>
       <c r="N24" s="117"/>
@@ -6852,21 +7031,17 @@
       <c r="U24" s="94"/>
       <c r="V24" s="108">
         <f t="shared" si="1"/>
-        <v>65.5</v>
+        <v>0</v>
       </c>
       <c r="W24" s="94"/>
     </row>
     <row r="25" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="115"/>
       <c r="E25" s="115"/>
       <c r="F25" s="115"/>
-      <c r="G25" s="115">
-        <v>5</v>
-      </c>
+      <c r="G25" s="115"/>
       <c r="H25" s="117"/>
       <c r="I25" s="117"/>
       <c r="J25" s="117"/>
@@ -6878,14 +7053,12 @@
       <c r="P25" s="118"/>
       <c r="Q25" s="94"/>
       <c r="R25" s="105"/>
-      <c r="S25" s="105">
-        <v>6</v>
-      </c>
+      <c r="S25" s="105"/>
       <c r="T25" s="71"/>
       <c r="U25" s="94"/>
       <c r="V25" s="108">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W25" s="94"/>
     </row>
@@ -6954,7 +7127,7 @@
       </c>
       <c r="E28" s="123">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F28" s="123">
         <f t="shared" si="4"/>
@@ -6962,7 +7135,7 @@
       </c>
       <c r="G28" s="123">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>1.5</v>
       </c>
       <c r="H28" s="123">
         <f t="shared" si="4"/>
@@ -6970,7 +7143,7 @@
       </c>
       <c r="I28" s="123">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J28" s="123">
         <f t="shared" si="4"/>
@@ -6978,7 +7151,7 @@
       </c>
       <c r="K28" s="123">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>18.5</v>
       </c>
       <c r="L28" s="124">
         <f t="shared" si="4"/>
@@ -6991,11 +7164,11 @@
       </c>
       <c r="O28" s="123">
         <f>SUM(O8:O27)</f>
-        <v>35</v>
+        <v>56.5</v>
       </c>
       <c r="P28" s="126">
         <f>SUM(P8:P27)</f>
-        <v>-4.5</v>
+        <v>-13.5</v>
       </c>
       <c r="Q28" s="123"/>
       <c r="R28" s="127">
@@ -7004,7 +7177,7 @@
       </c>
       <c r="S28" s="127">
         <f>SUM(S8:S27)</f>
-        <v>26.5</v>
+        <v>22.5</v>
       </c>
       <c r="T28" s="127">
         <f>SUM(T8:T27)</f>
@@ -7013,7 +7186,7 @@
       <c r="U28" s="125"/>
       <c r="V28" s="128">
         <f>SUM(V8:V27)</f>
-        <v>136.5</v>
+        <v>154</v>
       </c>
       <c r="W28" s="120"/>
     </row>
@@ -7042,6 +7215,945 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B3:W3"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:T6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5284F990-4449-4D0C-9474-727CB6FFEBB9}">
+  <dimension ref="B2:W29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="6"/>
+    <col min="15" max="15" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="134" customWidth="1"/>
+    <col min="23" max="23" width="2.28515625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+    </row>
+    <row r="3" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="159" t="str">
+        <f>Employee!C6</f>
+        <v>Arif Khan</v>
+      </c>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="160"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="160"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="150" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+    </row>
+    <row r="6" spans="2:23" s="96" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="161" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="164" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="166" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="92"/>
+      <c r="N6" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="168" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="168"/>
+      <c r="T6" s="168"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" s="94"/>
+    </row>
+    <row r="7" spans="2:23" s="96" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="97"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="165"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="U7" s="94"/>
+      <c r="V7" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="W7" s="94"/>
+    </row>
+    <row r="8" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="108">
+        <f>D8+E8+F8+G8+H8+I8+J8+K8+L8+O8+S8</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="94"/>
+    </row>
+    <row r="9" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="105">
+        <v>4.5</v>
+      </c>
+      <c r="P9" s="112">
+        <f>N9-O9</f>
+        <v>-4.5</v>
+      </c>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="71">
+        <f t="shared" ref="T9" si="0">IF(R9=0,0,(S9-R9)/R9)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="113"/>
+      <c r="V9" s="108">
+        <f t="shared" ref="V9:V27" si="1">D9+E9+F9+G9+H9+I9+J9+K9+L9+O9+S9</f>
+        <v>4.5</v>
+      </c>
+      <c r="W9" s="94"/>
+    </row>
+    <row r="10" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="105">
+        <v>5.5</v>
+      </c>
+      <c r="T10" s="71"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="108">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="W10" s="94"/>
+    </row>
+    <row r="11" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="105">
+        <v>19</v>
+      </c>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="108">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="W11" s="105"/>
+    </row>
+    <row r="12" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="105">
+        <v>3</v>
+      </c>
+      <c r="T12" s="71"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="108">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="W12" s="105"/>
+    </row>
+    <row r="13" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="112">
+        <f t="shared" ref="P13" si="2">IF(N13=0,0,(O13-N13)/N13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="71">
+        <f t="shared" ref="T13" si="3">IF(R13=0,0,(S13-R13)/R13)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="103"/>
+      <c r="V13" s="108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="105"/>
+    </row>
+    <row r="14" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="115">
+        <v>3.5</v>
+      </c>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="108">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="W14" s="115"/>
+    </row>
+    <row r="15" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="94"/>
+    </row>
+    <row r="16" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105">
+        <v>4.5</v>
+      </c>
+      <c r="T16" s="71"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="108">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="W16" s="94"/>
+    </row>
+    <row r="17" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="94"/>
+    </row>
+    <row r="18" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="115">
+        <v>4.5</v>
+      </c>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="108">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="W18" s="94"/>
+    </row>
+    <row r="19" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="102"/>
+      <c r="C19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="115">
+        <v>3.5</v>
+      </c>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="108">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="W19" s="94"/>
+    </row>
+    <row r="20" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="102"/>
+      <c r="C20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="112">
+        <f>N20-O20</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="105">
+        <v>7.5</v>
+      </c>
+      <c r="T20" s="71"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="108">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="W20" s="94"/>
+    </row>
+    <row r="21" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="112">
+        <f>N21-O21</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="94"/>
+    </row>
+    <row r="22" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115">
+        <v>4.5</v>
+      </c>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="108">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="W22" s="94"/>
+    </row>
+    <row r="23" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="94"/>
+    </row>
+    <row r="24" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="102"/>
+      <c r="C24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115">
+        <v>1.5</v>
+      </c>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117">
+        <v>64</v>
+      </c>
+      <c r="L24" s="119"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="108">
+        <f t="shared" si="1"/>
+        <v>65.5</v>
+      </c>
+      <c r="W24" s="94"/>
+    </row>
+    <row r="25" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115">
+        <v>5</v>
+      </c>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105">
+        <v>6</v>
+      </c>
+      <c r="T25" s="71"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="108">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="W25" s="94"/>
+    </row>
+    <row r="26" spans="2:23" s="96" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="116"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="117"/>
+      <c r="V26" s="108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="120"/>
+    </row>
+    <row r="27" spans="2:23" s="96" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="120"/>
+    </row>
+    <row r="28" spans="2:23" s="96" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="122"/>
+      <c r="D28" s="123">
+        <f t="shared" ref="D28:L28" si="4">SUM(D8:D27)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="123">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="123">
+        <f t="shared" si="4"/>
+        <v>9.5</v>
+      </c>
+      <c r="H28" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="123">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="L28" s="124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="92"/>
+      <c r="N28" s="125">
+        <f>SUM(N8:N27)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="123">
+        <f>SUM(O8:O27)</f>
+        <v>35</v>
+      </c>
+      <c r="P28" s="126">
+        <f>SUM(P8:P27)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="127">
+        <f>SUM(R8:R27)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="127">
+        <f>SUM(S8:S27)</f>
+        <v>26.5</v>
+      </c>
+      <c r="T28" s="127">
+        <f>SUM(T8:T27)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="125"/>
+      <c r="V28" s="128">
+        <f>SUM(V8:V27)</f>
+        <v>136.5</v>
+      </c>
+      <c r="W28" s="120"/>
+    </row>
+    <row r="29" spans="2:23" s="129" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="130"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="130"/>
+      <c r="S29" s="130"/>
+      <c r="T29" s="130"/>
+      <c r="U29" s="130"/>
+      <c r="V29" s="132"/>
+      <c r="W29" s="130"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:W2"/>
     <mergeCell ref="B4:W4"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="K6:K7"/>
@@ -7055,7 +8167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404BC39D-231F-4B5E-A767-7D4DD666D3AD}">
   <dimension ref="B2:Y25"/>
   <sheetViews>
@@ -7879,7 +8991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:Y27"/>
   <sheetViews>
